--- a/NRI_STLF_Data/WeatherData/T_zanjan/T_zanjan94.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_zanjan/T_zanjan94.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hkhatibzadeh\Load Forecasting\last data 95.7.6\WeatherData\T_zanjan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="12">
   <si>
     <t>Rain-Thunderstorm</t>
   </si>
@@ -57,12 +62,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -150,7 +155,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,7 +190,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,15 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA388"/>
+  <dimension ref="A1:AA365"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="F366" sqref="F366:AC388"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1">
         <v>94</v>
       </c>
@@ -479,7 +484,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>94</v>
       </c>
@@ -559,7 +564,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>94</v>
       </c>
@@ -639,7 +644,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>94</v>
       </c>
@@ -716,7 +721,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>94</v>
       </c>
@@ -796,7 +801,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>94</v>
       </c>
@@ -876,7 +881,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>94</v>
       </c>
@@ -953,7 +958,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>94</v>
       </c>
@@ -1030,7 +1035,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>94</v>
       </c>
@@ -1110,7 +1115,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>94</v>
       </c>
@@ -1190,7 +1195,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>94</v>
       </c>
@@ -1270,7 +1275,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>94</v>
       </c>
@@ -1347,7 +1352,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>94</v>
       </c>
@@ -1424,7 +1429,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>94</v>
       </c>
@@ -1501,7 +1506,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>94</v>
       </c>
@@ -1578,7 +1583,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>94</v>
       </c>
@@ -1655,7 +1660,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>94</v>
       </c>
@@ -1729,7 +1734,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>94</v>
       </c>
@@ -1806,7 +1811,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>94</v>
       </c>
@@ -1883,7 +1888,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>94</v>
       </c>
@@ -1960,7 +1965,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>94</v>
       </c>
@@ -2040,7 +2045,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>94</v>
       </c>
@@ -2120,7 +2125,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>94</v>
       </c>
@@ -2200,7 +2205,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>94</v>
       </c>
@@ -2280,7 +2285,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>94</v>
       </c>
@@ -2357,7 +2362,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>94</v>
       </c>
@@ -2434,7 +2439,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>94</v>
       </c>
@@ -2514,7 +2519,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>94</v>
       </c>
@@ -2591,7 +2596,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>94</v>
       </c>
@@ -2668,7 +2673,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>94</v>
       </c>
@@ -2745,7 +2750,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>94</v>
       </c>
@@ -2822,7 +2827,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>94</v>
       </c>
@@ -2899,7 +2904,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>94</v>
       </c>
@@ -2976,7 +2981,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>94</v>
       </c>
@@ -3056,7 +3061,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>94</v>
       </c>
@@ -3136,7 +3141,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>94</v>
       </c>
@@ -3216,7 +3221,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>94</v>
       </c>
@@ -3290,7 +3295,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>94</v>
       </c>
@@ -3367,7 +3372,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>94</v>
       </c>
@@ -3444,7 +3449,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>94</v>
       </c>
@@ -3521,7 +3526,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>94</v>
       </c>
@@ -3598,7 +3603,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>94</v>
       </c>
@@ -3675,7 +3680,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>94</v>
       </c>
@@ -3752,7 +3757,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>94</v>
       </c>
@@ -3829,7 +3834,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>94</v>
       </c>
@@ -3906,7 +3911,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>94</v>
       </c>
@@ -3986,7 +3991,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>94</v>
       </c>
@@ -4063,7 +4068,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>94</v>
       </c>
@@ -4143,7 +4148,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>94</v>
       </c>
@@ -4220,7 +4225,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>94</v>
       </c>
@@ -4297,7 +4302,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>94</v>
       </c>
@@ -4374,7 +4379,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>94</v>
       </c>
@@ -4454,7 +4459,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>94</v>
       </c>
@@ -4531,7 +4536,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>94</v>
       </c>
@@ -4608,7 +4613,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>94</v>
       </c>
@@ -4685,7 +4690,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>94</v>
       </c>
@@ -4762,7 +4767,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>94</v>
       </c>
@@ -4839,7 +4844,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>94</v>
       </c>
@@ -4916,7 +4921,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>94</v>
       </c>
@@ -4993,7 +4998,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>94</v>
       </c>
@@ -5070,7 +5075,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>94</v>
       </c>
@@ -5147,7 +5152,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>94</v>
       </c>
@@ -5224,7 +5229,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>94</v>
       </c>
@@ -5304,7 +5309,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>94</v>
       </c>
@@ -5381,7 +5386,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>94</v>
       </c>
@@ -5458,7 +5463,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>94</v>
       </c>
@@ -5535,7 +5540,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>94</v>
       </c>
@@ -5615,7 +5620,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>94</v>
       </c>
@@ -5695,7 +5700,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>94</v>
       </c>
@@ -5775,7 +5780,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>94</v>
       </c>
@@ -5852,7 +5857,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>94</v>
       </c>
@@ -5932,7 +5937,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>94</v>
       </c>
@@ -6012,7 +6017,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>94</v>
       </c>
@@ -6092,7 +6097,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>94</v>
       </c>
@@ -6169,7 +6174,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>94</v>
       </c>
@@ -6246,7 +6251,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>94</v>
       </c>
@@ -6323,7 +6328,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>94</v>
       </c>
@@ -6400,7 +6405,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>94</v>
       </c>
@@ -6477,7 +6482,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>94</v>
       </c>
@@ -6554,7 +6559,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>94</v>
       </c>
@@ -6631,7 +6636,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>94</v>
       </c>
@@ -6708,7 +6713,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>94</v>
       </c>
@@ -6785,7 +6790,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>94</v>
       </c>
@@ -6862,7 +6867,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>94</v>
       </c>
@@ -6936,7 +6941,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>94</v>
       </c>
@@ -7010,7 +7015,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>94</v>
       </c>
@@ -7084,7 +7089,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>94</v>
       </c>
@@ -7161,7 +7166,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>94</v>
       </c>
@@ -7238,7 +7243,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>94</v>
       </c>
@@ -7315,7 +7320,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>94</v>
       </c>
@@ -7392,7 +7397,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>94</v>
       </c>
@@ -7469,7 +7474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>94</v>
       </c>
@@ -7546,7 +7551,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>94</v>
       </c>
@@ -7620,7 +7625,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27">
       <c r="A94">
         <v>94</v>
       </c>
@@ -7697,7 +7702,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7774,7 +7779,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>94</v>
       </c>
@@ -7851,7 +7856,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27">
       <c r="A97">
         <v>94</v>
       </c>
@@ -7928,7 +7933,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27">
       <c r="A98">
         <v>94</v>
       </c>
@@ -8005,7 +8010,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27">
       <c r="A99">
         <v>94</v>
       </c>
@@ -8082,7 +8087,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27">
       <c r="A100">
         <v>94</v>
       </c>
@@ -8156,7 +8161,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27">
       <c r="A101">
         <v>94</v>
       </c>
@@ -8230,7 +8235,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27">
       <c r="A102">
         <v>94</v>
       </c>
@@ -8307,7 +8312,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27">
       <c r="A103">
         <v>94</v>
       </c>
@@ -8384,7 +8389,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27">
       <c r="A104">
         <v>94</v>
       </c>
@@ -8461,7 +8466,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27">
       <c r="A105">
         <v>94</v>
       </c>
@@ -8538,7 +8543,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27">
       <c r="A106">
         <v>94</v>
       </c>
@@ -8618,7 +8623,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27">
       <c r="A107">
         <v>94</v>
       </c>
@@ -8695,7 +8700,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27">
       <c r="A108">
         <v>94</v>
       </c>
@@ -8772,7 +8777,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27">
       <c r="A109">
         <v>94</v>
       </c>
@@ -8849,7 +8854,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27">
       <c r="A110">
         <v>94</v>
       </c>
@@ -8926,7 +8931,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27">
       <c r="A111">
         <v>94</v>
       </c>
@@ -9003,7 +9008,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27">
       <c r="A112">
         <v>94</v>
       </c>
@@ -9080,7 +9085,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27">
       <c r="A113">
         <v>94</v>
       </c>
@@ -9157,7 +9162,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27">
       <c r="A114">
         <v>94</v>
       </c>
@@ -9234,7 +9239,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27">
       <c r="A115">
         <v>94</v>
       </c>
@@ -9314,7 +9319,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27">
       <c r="A116">
         <v>94</v>
       </c>
@@ -9394,7 +9399,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27">
       <c r="A117">
         <v>94</v>
       </c>
@@ -9471,7 +9476,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27">
       <c r="A118">
         <v>94</v>
       </c>
@@ -9551,7 +9556,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27">
       <c r="A119">
         <v>94</v>
       </c>
@@ -9631,7 +9636,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27">
       <c r="A120">
         <v>94</v>
       </c>
@@ -9711,7 +9716,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27">
       <c r="A121">
         <v>94</v>
       </c>
@@ -9791,7 +9796,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27">
       <c r="A122">
         <v>94</v>
       </c>
@@ -9871,7 +9876,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27">
       <c r="A123">
         <v>94</v>
       </c>
@@ -9948,7 +9953,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27">
       <c r="A124">
         <v>94</v>
       </c>
@@ -10028,7 +10033,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>94</v>
       </c>
@@ -10105,7 +10110,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27">
       <c r="A126">
         <v>94</v>
       </c>
@@ -10182,7 +10187,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27">
       <c r="A127">
         <v>94</v>
       </c>
@@ -10256,7 +10261,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27">
       <c r="A128">
         <v>94</v>
       </c>
@@ -10330,7 +10335,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27">
       <c r="A129">
         <v>94</v>
       </c>
@@ -10407,7 +10412,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27">
       <c r="A130">
         <v>94</v>
       </c>
@@ -10481,7 +10486,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27">
       <c r="A131">
         <v>94</v>
       </c>
@@ -10558,7 +10563,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27">
       <c r="A132">
         <v>94</v>
       </c>
@@ -10635,7 +10640,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27">
       <c r="A133">
         <v>94</v>
       </c>
@@ -10709,7 +10714,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27">
       <c r="A134">
         <v>94</v>
       </c>
@@ -10786,7 +10791,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27">
       <c r="A135">
         <v>94</v>
       </c>
@@ -10863,7 +10868,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27">
       <c r="A136">
         <v>94</v>
       </c>
@@ -10940,7 +10945,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27">
       <c r="A137">
         <v>94</v>
       </c>
@@ -11017,7 +11022,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27">
       <c r="A138">
         <v>94</v>
       </c>
@@ -11094,7 +11099,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27">
       <c r="A139">
         <v>94</v>
       </c>
@@ -11171,7 +11176,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27">
       <c r="A140">
         <v>94</v>
       </c>
@@ -11251,7 +11256,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27">
       <c r="A141">
         <v>94</v>
       </c>
@@ -11328,7 +11333,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27">
       <c r="A142">
         <v>94</v>
       </c>
@@ -11405,7 +11410,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27">
       <c r="A143">
         <v>94</v>
       </c>
@@ -11482,7 +11487,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27">
       <c r="A144">
         <v>94</v>
       </c>
@@ -11559,7 +11564,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27">
       <c r="A145">
         <v>94</v>
       </c>
@@ -11636,7 +11641,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27">
       <c r="A146">
         <v>94</v>
       </c>
@@ -11713,7 +11718,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27">
       <c r="A147">
         <v>94</v>
       </c>
@@ -11787,7 +11792,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27">
       <c r="A148">
         <v>94</v>
       </c>
@@ -11864,7 +11869,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27">
       <c r="A149">
         <v>94</v>
       </c>
@@ -11941,7 +11946,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27">
       <c r="A150">
         <v>94</v>
       </c>
@@ -12018,7 +12023,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27">
       <c r="A151">
         <v>94</v>
       </c>
@@ -12092,7 +12097,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27">
       <c r="A152">
         <v>94</v>
       </c>
@@ -12166,7 +12171,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27">
       <c r="A153">
         <v>94</v>
       </c>
@@ -12243,7 +12248,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27">
       <c r="A154">
         <v>94</v>
       </c>
@@ -12320,7 +12325,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27">
       <c r="A155">
         <v>94</v>
       </c>
@@ -12397,7 +12402,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27">
       <c r="A156">
         <v>94</v>
       </c>
@@ -12474,7 +12479,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27">
       <c r="A157">
         <v>94</v>
       </c>
@@ -12551,7 +12556,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27">
       <c r="A158">
         <v>94</v>
       </c>
@@ -12631,7 +12636,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27">
       <c r="A159">
         <v>94</v>
       </c>
@@ -12708,7 +12713,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27">
       <c r="A160">
         <v>94</v>
       </c>
@@ -12785,7 +12790,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27">
       <c r="A161">
         <v>94</v>
       </c>
@@ -12862,7 +12867,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:27">
       <c r="A162">
         <v>94</v>
       </c>
@@ -12939,7 +12944,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:27">
       <c r="A163">
         <v>94</v>
       </c>
@@ -13016,7 +13021,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:27">
       <c r="A164">
         <v>94</v>
       </c>
@@ -13096,7 +13101,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:27">
       <c r="A165">
         <v>94</v>
       </c>
@@ -13176,7 +13181,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:27">
       <c r="A166">
         <v>94</v>
       </c>
@@ -13253,7 +13258,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:27">
       <c r="A167">
         <v>94</v>
       </c>
@@ -13330,7 +13335,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:27">
       <c r="A168">
         <v>94</v>
       </c>
@@ -13407,7 +13412,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:27">
       <c r="A169">
         <v>94</v>
       </c>
@@ -13484,7 +13489,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:27">
       <c r="A170">
         <v>94</v>
       </c>
@@ -13564,7 +13569,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:27">
       <c r="A171">
         <v>94</v>
       </c>
@@ -13641,7 +13646,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:27">
       <c r="A172">
         <v>94</v>
       </c>
@@ -13718,7 +13723,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:27">
       <c r="A173">
         <v>94</v>
       </c>
@@ -13795,7 +13800,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27">
       <c r="A174">
         <v>94</v>
       </c>
@@ -13872,7 +13877,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27">
       <c r="A175">
         <v>94</v>
       </c>
@@ -13946,7 +13951,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27">
       <c r="A176">
         <v>94</v>
       </c>
@@ -14023,7 +14028,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:27">
       <c r="A177">
         <v>94</v>
       </c>
@@ -14100,7 +14105,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:27">
       <c r="A178">
         <v>94</v>
       </c>
@@ -14177,7 +14182,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:27">
       <c r="A179">
         <v>94</v>
       </c>
@@ -14254,7 +14259,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:27">
       <c r="A180">
         <v>94</v>
       </c>
@@ -14334,7 +14339,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:27">
       <c r="A181">
         <v>94</v>
       </c>
@@ -14411,7 +14416,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:27">
       <c r="A182">
         <v>94</v>
       </c>
@@ -14491,7 +14496,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:27">
       <c r="A183">
         <v>94</v>
       </c>
@@ -14568,7 +14573,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:27">
       <c r="A184">
         <v>94</v>
       </c>
@@ -14645,7 +14650,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:27">
       <c r="A185">
         <v>94</v>
       </c>
@@ -14719,7 +14724,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:27">
       <c r="A186">
         <v>94</v>
       </c>
@@ -14796,7 +14801,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:27">
       <c r="A187">
         <v>94</v>
       </c>
@@ -14873,7 +14878,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:27">
       <c r="A188">
         <v>94</v>
       </c>
@@ -14950,7 +14955,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:27">
       <c r="A189">
         <v>94</v>
       </c>
@@ -15027,7 +15032,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:27">
       <c r="A190">
         <v>94</v>
       </c>
@@ -15104,7 +15109,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:27">
       <c r="A191">
         <v>94</v>
       </c>
@@ -15181,7 +15186,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:27">
       <c r="A192">
         <v>94</v>
       </c>
@@ -15258,7 +15263,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:27">
       <c r="A193">
         <v>94</v>
       </c>
@@ -15335,7 +15340,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:27">
       <c r="A194">
         <v>94</v>
       </c>
@@ -15415,7 +15420,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:27">
       <c r="A195">
         <v>94</v>
       </c>
@@ -15495,7 +15500,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:27">
       <c r="A196">
         <v>94</v>
       </c>
@@ -15572,7 +15577,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:27">
       <c r="A197">
         <v>94</v>
       </c>
@@ -15652,7 +15657,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:27">
       <c r="A198">
         <v>94</v>
       </c>
@@ -15732,7 +15737,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:27">
       <c r="A199">
         <v>94</v>
       </c>
@@ -15809,7 +15814,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:27">
       <c r="A200">
         <v>94</v>
       </c>
@@ -15886,7 +15891,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:27">
       <c r="A201">
         <v>94</v>
       </c>
@@ -15966,7 +15971,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:27">
       <c r="A202">
         <v>94</v>
       </c>
@@ -16046,7 +16051,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:27">
       <c r="A203">
         <v>94</v>
       </c>
@@ -16126,7 +16131,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:27">
       <c r="A204">
         <v>94</v>
       </c>
@@ -16203,7 +16208,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:27">
       <c r="A205">
         <v>94</v>
       </c>
@@ -16280,7 +16285,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:27">
       <c r="A206">
         <v>94</v>
       </c>
@@ -16354,7 +16359,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:27">
       <c r="A207">
         <v>94</v>
       </c>
@@ -16431,7 +16436,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:27">
       <c r="A208">
         <v>94</v>
       </c>
@@ -16508,7 +16513,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:27">
       <c r="A209">
         <v>94</v>
       </c>
@@ -16585,7 +16590,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:27">
       <c r="A210">
         <v>94</v>
       </c>
@@ -16662,7 +16667,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:27">
       <c r="A211">
         <v>94</v>
       </c>
@@ -16742,7 +16747,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:27">
       <c r="A212">
         <v>94</v>
       </c>
@@ -16819,7 +16824,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:27">
       <c r="A213">
         <v>94</v>
       </c>
@@ -16893,7 +16898,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:27">
       <c r="A214">
         <v>94</v>
       </c>
@@ -16970,7 +16975,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:27">
       <c r="A215">
         <v>94</v>
       </c>
@@ -17047,7 +17052,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:27">
       <c r="A216">
         <v>94</v>
       </c>
@@ -17124,7 +17129,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:27">
       <c r="A217">
         <v>94</v>
       </c>
@@ -17201,7 +17206,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:27">
       <c r="A218">
         <v>94</v>
       </c>
@@ -17275,7 +17280,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:27">
       <c r="A219">
         <v>94</v>
       </c>
@@ -17349,7 +17354,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:27">
       <c r="A220">
         <v>94</v>
       </c>
@@ -17423,7 +17428,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:27">
       <c r="A221">
         <v>94</v>
       </c>
@@ -17503,7 +17508,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:27">
       <c r="A222">
         <v>94</v>
       </c>
@@ -17583,7 +17588,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:27">
       <c r="A223">
         <v>94</v>
       </c>
@@ -17663,7 +17668,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:27">
       <c r="A224">
         <v>94</v>
       </c>
@@ -17743,7 +17748,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:27">
       <c r="A225">
         <v>94</v>
       </c>
@@ -17823,7 +17828,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:27">
       <c r="A226">
         <v>94</v>
       </c>
@@ -17900,7 +17905,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:27">
       <c r="A227">
         <v>94</v>
       </c>
@@ -17980,7 +17985,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:27">
       <c r="A228">
         <v>94</v>
       </c>
@@ -18060,7 +18065,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:27">
       <c r="A229">
         <v>94</v>
       </c>
@@ -18137,7 +18142,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:27">
       <c r="A230">
         <v>94</v>
       </c>
@@ -18214,7 +18219,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:27">
       <c r="A231">
         <v>94</v>
       </c>
@@ -18294,7 +18299,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:27">
       <c r="A232">
         <v>94</v>
       </c>
@@ -18374,7 +18379,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:27">
       <c r="A233">
         <v>94</v>
       </c>
@@ -18451,7 +18456,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:27">
       <c r="A234">
         <v>94</v>
       </c>
@@ -18531,7 +18536,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:27">
       <c r="A235">
         <v>94</v>
       </c>
@@ -18611,7 +18616,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:27">
       <c r="A236">
         <v>94</v>
       </c>
@@ -18691,7 +18696,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:27">
       <c r="A237">
         <v>94</v>
       </c>
@@ -18768,7 +18773,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:27">
       <c r="A238">
         <v>94</v>
       </c>
@@ -18842,7 +18847,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:27">
       <c r="A239">
         <v>94</v>
       </c>
@@ -18922,7 +18927,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:27">
       <c r="A240">
         <v>94</v>
       </c>
@@ -18996,7 +19001,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:27">
       <c r="A241">
         <v>94</v>
       </c>
@@ -19073,7 +19078,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:27">
       <c r="A242">
         <v>94</v>
       </c>
@@ -19153,7 +19158,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:27">
       <c r="A243">
         <v>94</v>
       </c>
@@ -19233,7 +19238,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:27">
       <c r="A244">
         <v>94</v>
       </c>
@@ -19313,7 +19318,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:27">
       <c r="A245">
         <v>94</v>
       </c>
@@ -19393,7 +19398,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:27">
       <c r="A246">
         <v>94</v>
       </c>
@@ -19470,7 +19475,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:27">
       <c r="A247">
         <v>94</v>
       </c>
@@ -19544,7 +19549,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:27">
       <c r="A248">
         <v>94</v>
       </c>
@@ -19618,7 +19623,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:27">
       <c r="A249">
         <v>94</v>
       </c>
@@ -19692,7 +19697,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:27">
       <c r="A250">
         <v>94</v>
       </c>
@@ -19766,7 +19771,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:27">
       <c r="A251">
         <v>94</v>
       </c>
@@ -19843,7 +19848,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:27">
       <c r="A252">
         <v>94</v>
       </c>
@@ -19920,7 +19925,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:27">
       <c r="A253">
         <v>94</v>
       </c>
@@ -19994,7 +19999,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:27">
       <c r="A254">
         <v>94</v>
       </c>
@@ -20071,7 +20076,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:27">
       <c r="A255">
         <v>94</v>
       </c>
@@ -20148,7 +20153,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:27">
       <c r="A256">
         <v>94</v>
       </c>
@@ -20228,7 +20233,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:27">
       <c r="A257">
         <v>94</v>
       </c>
@@ -20305,7 +20310,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:27">
       <c r="A258">
         <v>94</v>
       </c>
@@ -20388,7 +20393,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:27">
       <c r="A259">
         <v>94</v>
       </c>
@@ -20468,7 +20473,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:27">
       <c r="A260">
         <v>94</v>
       </c>
@@ -20545,7 +20550,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:27">
       <c r="A261">
         <v>94</v>
       </c>
@@ -20625,7 +20630,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:27">
       <c r="A262">
         <v>94</v>
       </c>
@@ -20705,7 +20710,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:27">
       <c r="A263">
         <v>94</v>
       </c>
@@ -20782,7 +20787,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:27">
       <c r="A264">
         <v>94</v>
       </c>
@@ -20859,7 +20864,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:27">
       <c r="A265">
         <v>94</v>
       </c>
@@ -20936,7 +20941,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:27">
       <c r="A266">
         <v>94</v>
       </c>
@@ -21013,7 +21018,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:27">
       <c r="A267">
         <v>94</v>
       </c>
@@ -21090,7 +21095,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:27">
       <c r="A268">
         <v>94</v>
       </c>
@@ -21170,7 +21175,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:27">
       <c r="A269">
         <v>94</v>
       </c>
@@ -21250,7 +21255,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:27">
       <c r="A270">
         <v>94</v>
       </c>
@@ -21330,7 +21335,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:27">
       <c r="A271">
         <v>94</v>
       </c>
@@ -21410,7 +21415,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:27">
       <c r="A272">
         <v>94</v>
       </c>
@@ -21490,7 +21495,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:27">
       <c r="A273">
         <v>94</v>
       </c>
@@ -21570,7 +21575,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:27">
       <c r="A274">
         <v>94</v>
       </c>
@@ -21650,7 +21655,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:27">
       <c r="A275">
         <v>94</v>
       </c>
@@ -21730,7 +21735,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="276" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:27">
       <c r="A276">
         <v>94</v>
       </c>
@@ -21810,7 +21815,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:27">
       <c r="A277">
         <v>94</v>
       </c>
@@ -21884,7 +21889,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="278" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:27">
       <c r="A278">
         <v>94</v>
       </c>
@@ -21958,7 +21963,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="279" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:27">
       <c r="A279">
         <v>94</v>
       </c>
@@ -22035,7 +22040,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="280" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:27">
       <c r="A280">
         <v>94</v>
       </c>
@@ -22109,7 +22114,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="281" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:27">
       <c r="A281">
         <v>94</v>
       </c>
@@ -22183,7 +22188,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="282" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:27">
       <c r="A282">
         <v>94</v>
       </c>
@@ -22260,7 +22265,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="283" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:27">
       <c r="A283">
         <v>94</v>
       </c>
@@ -22334,7 +22339,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="284" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:27">
       <c r="A284">
         <v>94</v>
       </c>
@@ -22408,7 +22413,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="285" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:27">
       <c r="A285">
         <v>94</v>
       </c>
@@ -22488,7 +22493,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="286" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:27">
       <c r="A286">
         <v>94</v>
       </c>
@@ -22565,7 +22570,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="287" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:27">
       <c r="A287">
         <v>94</v>
       </c>
@@ -22645,7 +22650,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="288" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:27">
       <c r="A288">
         <v>94</v>
       </c>
@@ -22725,7 +22730,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:27">
       <c r="A289">
         <v>94</v>
       </c>
@@ -22802,7 +22807,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:27">
       <c r="A290">
         <v>94</v>
       </c>
@@ -22879,7 +22884,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:27">
       <c r="A291">
         <v>94</v>
       </c>
@@ -22959,7 +22964,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:27">
       <c r="A292">
         <v>94</v>
       </c>
@@ -23036,7 +23041,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:27">
       <c r="A293">
         <v>94</v>
       </c>
@@ -23113,7 +23118,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:27">
       <c r="A294">
         <v>94</v>
       </c>
@@ -23193,7 +23198,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:27">
       <c r="A295">
         <v>94</v>
       </c>
@@ -23273,7 +23278,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:27">
       <c r="A296">
         <v>94</v>
       </c>
@@ -23353,7 +23358,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:27">
       <c r="A297">
         <v>94</v>
       </c>
@@ -23427,7 +23432,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:27">
       <c r="A298">
         <v>94</v>
       </c>
@@ -23504,7 +23509,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:27">
       <c r="A299">
         <v>94</v>
       </c>
@@ -23578,7 +23583,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:27">
       <c r="A300">
         <v>94</v>
       </c>
@@ -23652,7 +23657,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:27">
       <c r="A301">
         <v>94</v>
       </c>
@@ -23729,7 +23734,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:27">
       <c r="A302">
         <v>94</v>
       </c>
@@ -23806,7 +23811,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:27">
       <c r="A303">
         <v>94</v>
       </c>
@@ -23880,7 +23885,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:27">
       <c r="A304">
         <v>94</v>
       </c>
@@ -23957,7 +23962,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:27">
       <c r="A305">
         <v>94</v>
       </c>
@@ -24037,7 +24042,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:27">
       <c r="A306">
         <v>94</v>
       </c>
@@ -24117,7 +24122,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:27">
       <c r="A307">
         <v>94</v>
       </c>
@@ -24194,7 +24199,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:27">
       <c r="A308">
         <v>94</v>
       </c>
@@ -24271,7 +24276,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:27">
       <c r="A309">
         <v>94</v>
       </c>
@@ -24351,7 +24356,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:27">
       <c r="A310">
         <v>94</v>
       </c>
@@ -24431,7 +24436,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:27">
       <c r="A311">
         <v>94</v>
       </c>
@@ -24511,7 +24516,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:27">
       <c r="A312">
         <v>94</v>
       </c>
@@ -24591,7 +24596,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:27">
       <c r="A313">
         <v>94</v>
       </c>
@@ -24671,7 +24676,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:27">
       <c r="A314">
         <v>94</v>
       </c>
@@ -24751,7 +24756,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:27">
       <c r="A315">
         <v>94</v>
       </c>
@@ -24828,7 +24833,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:27">
       <c r="A316">
         <v>94</v>
       </c>
@@ -24905,7 +24910,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:27">
       <c r="A317">
         <v>94</v>
       </c>
@@ -24985,7 +24990,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:27">
       <c r="A318">
         <v>94</v>
       </c>
@@ -25062,7 +25067,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:27">
       <c r="A319">
         <v>94</v>
       </c>
@@ -25142,7 +25147,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:27">
       <c r="A320">
         <v>94</v>
       </c>
@@ -25222,7 +25227,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="321" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:27">
       <c r="A321">
         <v>94</v>
       </c>
@@ -25299,7 +25304,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="322" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:27">
       <c r="A322">
         <v>94</v>
       </c>
@@ -25376,7 +25381,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="323" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:27">
       <c r="A323">
         <v>94</v>
       </c>
@@ -25453,7 +25458,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="324" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:27">
       <c r="A324">
         <v>94</v>
       </c>
@@ -25533,7 +25538,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="325" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:27">
       <c r="A325">
         <v>94</v>
       </c>
@@ -25613,7 +25618,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="326" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:27">
       <c r="A326">
         <v>94</v>
       </c>
@@ -25690,7 +25695,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="327" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:27">
       <c r="A327">
         <v>94</v>
       </c>
@@ -25767,7 +25772,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="328" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:27">
       <c r="A328">
         <v>94</v>
       </c>
@@ -25844,7 +25849,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="329" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:27">
       <c r="A329">
         <v>94</v>
       </c>
@@ -25918,7 +25923,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="330" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:27">
       <c r="A330">
         <v>94</v>
       </c>
@@ -25992,7 +25997,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="331" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:27">
       <c r="A331">
         <v>94</v>
       </c>
@@ -26069,7 +26074,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="332" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:27">
       <c r="A332">
         <v>94</v>
       </c>
@@ -26146,7 +26151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:27">
       <c r="A333">
         <v>94</v>
       </c>
@@ -26223,7 +26228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="334" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:27">
       <c r="A334">
         <v>94</v>
       </c>
@@ -26300,7 +26305,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="335" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:27">
       <c r="A335">
         <v>94</v>
       </c>
@@ -26377,7 +26382,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="336" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:27">
       <c r="A336">
         <v>94</v>
       </c>
@@ -26454,7 +26459,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="337" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:27">
       <c r="A337">
         <v>94</v>
       </c>
@@ -26534,7 +26539,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="338" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:27">
       <c r="A338">
         <v>94</v>
       </c>
@@ -26611,7 +26616,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="339" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:27">
       <c r="A339">
         <v>94</v>
       </c>
@@ -26691,7 +26696,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="340" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:27">
       <c r="A340">
         <v>94</v>
       </c>
@@ -26774,7 +26779,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:27">
       <c r="A341">
         <v>94</v>
       </c>
@@ -26854,7 +26859,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="342" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:27">
       <c r="A342">
         <v>94</v>
       </c>
@@ -26931,7 +26936,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="343" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:27">
       <c r="A343">
         <v>94</v>
       </c>
@@ -27008,7 +27013,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="344" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:27">
       <c r="A344">
         <v>94</v>
       </c>
@@ -27085,7 +27090,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="345" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:27">
       <c r="A345">
         <v>94</v>
       </c>
@@ -27165,7 +27170,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="346" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:27">
       <c r="A346">
         <v>94</v>
       </c>
@@ -27245,7 +27250,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="347" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:27">
       <c r="A347">
         <v>94</v>
       </c>
@@ -27325,7 +27330,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="348" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:27">
       <c r="A348">
         <v>94</v>
       </c>
@@ -27399,7 +27404,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="349" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:27">
       <c r="A349">
         <v>94</v>
       </c>
@@ -27476,7 +27481,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="350" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:27">
       <c r="A350">
         <v>94</v>
       </c>
@@ -27553,7 +27558,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="351" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:27">
       <c r="A351">
         <v>94</v>
       </c>
@@ -27630,7 +27635,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="352" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:27">
       <c r="A352">
         <v>94</v>
       </c>
@@ -27707,7 +27712,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="353" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:27">
       <c r="A353">
         <v>94</v>
       </c>
@@ -27784,7 +27789,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="354" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:27">
       <c r="A354">
         <v>94</v>
       </c>
@@ -27858,7 +27863,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="355" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:27">
       <c r="A355">
         <v>94</v>
       </c>
@@ -27932,7 +27937,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="356" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:27">
       <c r="A356">
         <v>94</v>
       </c>
@@ -28006,7 +28011,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="357" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:27">
       <c r="A357">
         <v>94</v>
       </c>
@@ -28086,7 +28091,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="358" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:27">
       <c r="A358">
         <v>94</v>
       </c>
@@ -28163,7 +28168,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="359" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:27">
       <c r="A359">
         <v>94</v>
       </c>
@@ -28240,7 +28245,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="360" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:27">
       <c r="A360">
         <v>94</v>
       </c>
@@ -28317,7 +28322,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="361" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:27">
       <c r="A361">
         <v>94</v>
       </c>
@@ -28394,7 +28399,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="362" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:27">
       <c r="A362">
         <v>94</v>
       </c>
@@ -28471,7 +28476,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="363" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:27">
       <c r="A363">
         <v>94</v>
       </c>
@@ -28551,7 +28556,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="364" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:27">
       <c r="A364">
         <v>94</v>
       </c>
@@ -28631,7 +28636,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="365" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:27">
       <c r="A365">
         <v>94</v>
       </c>
@@ -28706,1465 +28711,6 @@
       </c>
       <c r="AA365">
         <v>217</v>
-      </c>
-    </row>
-    <row r="366" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F366">
-        <v>12</v>
-      </c>
-      <c r="G366">
-        <v>6</v>
-      </c>
-      <c r="H366">
-        <v>0</v>
-      </c>
-      <c r="I366">
-        <v>2</v>
-      </c>
-      <c r="J366">
-        <v>-3</v>
-      </c>
-      <c r="K366">
-        <v>-6</v>
-      </c>
-      <c r="L366">
-        <v>65</v>
-      </c>
-      <c r="M366">
-        <v>44</v>
-      </c>
-      <c r="N366">
-        <v>27</v>
-      </c>
-      <c r="O366">
-        <v>1015</v>
-      </c>
-      <c r="P366">
-        <v>1012</v>
-      </c>
-      <c r="Q366">
-        <v>1008</v>
-      </c>
-      <c r="R366">
-        <v>10</v>
-      </c>
-      <c r="S366">
-        <v>10</v>
-      </c>
-      <c r="T366">
-        <v>10</v>
-      </c>
-      <c r="U366">
-        <v>39</v>
-      </c>
-      <c r="V366">
-        <v>14</v>
-      </c>
-      <c r="X366">
-        <v>0.76</v>
-      </c>
-      <c r="Y366">
-        <v>6</v>
-      </c>
-      <c r="AA366">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="367" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F367">
-        <v>14</v>
-      </c>
-      <c r="G367">
-        <v>9</v>
-      </c>
-      <c r="H367">
-        <v>5</v>
-      </c>
-      <c r="I367">
-        <v>4</v>
-      </c>
-      <c r="J367">
-        <v>3</v>
-      </c>
-      <c r="K367">
-        <v>2</v>
-      </c>
-      <c r="L367">
-        <v>87</v>
-      </c>
-      <c r="M367">
-        <v>64</v>
-      </c>
-      <c r="N367">
-        <v>39</v>
-      </c>
-      <c r="O367">
-        <v>1014</v>
-      </c>
-      <c r="P367">
-        <v>1011</v>
-      </c>
-      <c r="Q367">
-        <v>1007</v>
-      </c>
-      <c r="R367">
-        <v>10</v>
-      </c>
-      <c r="S367">
-        <v>9</v>
-      </c>
-      <c r="T367">
-        <v>6</v>
-      </c>
-      <c r="U367">
-        <v>26</v>
-      </c>
-      <c r="V367">
-        <v>5</v>
-      </c>
-      <c r="X367">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="Y367">
-        <v>7</v>
-      </c>
-      <c r="Z367" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA367">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="368" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F368">
-        <v>13</v>
-      </c>
-      <c r="G368">
-        <v>7</v>
-      </c>
-      <c r="H368">
-        <v>0</v>
-      </c>
-      <c r="I368">
-        <v>2</v>
-      </c>
-      <c r="J368">
-        <v>-1</v>
-      </c>
-      <c r="K368">
-        <v>-4</v>
-      </c>
-      <c r="L368">
-        <v>87</v>
-      </c>
-      <c r="M368">
-        <v>53</v>
-      </c>
-      <c r="N368">
-        <v>18</v>
-      </c>
-      <c r="O368">
-        <v>1012</v>
-      </c>
-      <c r="P368">
-        <v>1010</v>
-      </c>
-      <c r="Q368">
-        <v>1006</v>
-      </c>
-      <c r="R368">
-        <v>10</v>
-      </c>
-      <c r="S368">
-        <v>10</v>
-      </c>
-      <c r="T368">
-        <v>8</v>
-      </c>
-      <c r="U368">
-        <v>26</v>
-      </c>
-      <c r="V368">
-        <v>8</v>
-      </c>
-      <c r="X368">
-        <v>0</v>
-      </c>
-      <c r="Y368">
-        <v>5</v>
-      </c>
-      <c r="AA368">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="369" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F369">
-        <v>12</v>
-      </c>
-      <c r="G369">
-        <v>6</v>
-      </c>
-      <c r="H369">
-        <v>1</v>
-      </c>
-      <c r="I369">
-        <v>1</v>
-      </c>
-      <c r="J369">
-        <v>-4</v>
-      </c>
-      <c r="K369">
-        <v>-10</v>
-      </c>
-      <c r="L369">
-        <v>87</v>
-      </c>
-      <c r="M369">
-        <v>51</v>
-      </c>
-      <c r="N369">
-        <v>18</v>
-      </c>
-      <c r="O369">
-        <v>1019</v>
-      </c>
-      <c r="P369">
-        <v>1014</v>
-      </c>
-      <c r="Q369">
-        <v>1012</v>
-      </c>
-      <c r="R369">
-        <v>10</v>
-      </c>
-      <c r="S369">
-        <v>10</v>
-      </c>
-      <c r="T369">
-        <v>10</v>
-      </c>
-      <c r="U369">
-        <v>29</v>
-      </c>
-      <c r="V369">
-        <v>13</v>
-      </c>
-      <c r="X369">
-        <v>0.51</v>
-      </c>
-      <c r="Y369">
-        <v>5</v>
-      </c>
-      <c r="AA369">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="370" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F370">
-        <v>17</v>
-      </c>
-      <c r="G370">
-        <v>9</v>
-      </c>
-      <c r="H370">
-        <v>0</v>
-      </c>
-      <c r="I370">
-        <v>1</v>
-      </c>
-      <c r="J370">
-        <v>-1</v>
-      </c>
-      <c r="K370">
-        <v>-4</v>
-      </c>
-      <c r="L370">
-        <v>85</v>
-      </c>
-      <c r="M370">
-        <v>44</v>
-      </c>
-      <c r="N370">
-        <v>23</v>
-      </c>
-      <c r="O370">
-        <v>1021</v>
-      </c>
-      <c r="P370">
-        <v>1019</v>
-      </c>
-      <c r="Q370">
-        <v>1013</v>
-      </c>
-      <c r="R370">
-        <v>10</v>
-      </c>
-      <c r="S370">
-        <v>10</v>
-      </c>
-      <c r="T370">
-        <v>10</v>
-      </c>
-      <c r="U370">
-        <v>23</v>
-      </c>
-      <c r="V370">
-        <v>8</v>
-      </c>
-      <c r="X370">
-        <v>0</v>
-      </c>
-      <c r="Y370">
-        <v>5</v>
-      </c>
-      <c r="AA370">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="371" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F371">
-        <v>20</v>
-      </c>
-      <c r="G371">
-        <v>14</v>
-      </c>
-      <c r="H371">
-        <v>8</v>
-      </c>
-      <c r="I371">
-        <v>1</v>
-      </c>
-      <c r="J371">
-        <v>-3</v>
-      </c>
-      <c r="K371">
-        <v>-6</v>
-      </c>
-      <c r="L371">
-        <v>40</v>
-      </c>
-      <c r="M371">
-        <v>27</v>
-      </c>
-      <c r="N371">
-        <v>18</v>
-      </c>
-      <c r="O371">
-        <v>1020</v>
-      </c>
-      <c r="P371">
-        <v>1016</v>
-      </c>
-      <c r="Q371">
-        <v>1010</v>
-      </c>
-      <c r="R371">
-        <v>11</v>
-      </c>
-      <c r="S371">
-        <v>10</v>
-      </c>
-      <c r="T371">
-        <v>10</v>
-      </c>
-      <c r="U371">
-        <v>32</v>
-      </c>
-      <c r="V371">
-        <v>16</v>
-      </c>
-      <c r="X371">
-        <v>0</v>
-      </c>
-      <c r="Y371">
-        <v>7</v>
-      </c>
-      <c r="AA371">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="372" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F372">
-        <v>13</v>
-      </c>
-      <c r="G372">
-        <v>11</v>
-      </c>
-      <c r="H372">
-        <v>9</v>
-      </c>
-      <c r="I372">
-        <v>4</v>
-      </c>
-      <c r="J372">
-        <v>1</v>
-      </c>
-      <c r="K372">
-        <v>-2</v>
-      </c>
-      <c r="L372">
-        <v>66</v>
-      </c>
-      <c r="M372">
-        <v>49</v>
-      </c>
-      <c r="N372">
-        <v>33</v>
-      </c>
-      <c r="O372">
-        <v>1018</v>
-      </c>
-      <c r="P372">
-        <v>1015</v>
-      </c>
-      <c r="Q372">
-        <v>1011</v>
-      </c>
-      <c r="R372">
-        <v>10</v>
-      </c>
-      <c r="S372">
-        <v>10</v>
-      </c>
-      <c r="T372">
-        <v>8</v>
-      </c>
-      <c r="U372">
-        <v>26</v>
-      </c>
-      <c r="V372">
-        <v>13</v>
-      </c>
-      <c r="X372">
-        <v>0</v>
-      </c>
-      <c r="Y372">
-        <v>8</v>
-      </c>
-      <c r="AA372">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="373" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F373">
-        <v>10</v>
-      </c>
-      <c r="G373">
-        <v>8</v>
-      </c>
-      <c r="H373">
-        <v>7</v>
-      </c>
-      <c r="I373">
-        <v>7</v>
-      </c>
-      <c r="J373">
-        <v>6</v>
-      </c>
-      <c r="K373">
-        <v>5</v>
-      </c>
-      <c r="L373">
-        <v>93</v>
-      </c>
-      <c r="M373">
-        <v>82</v>
-      </c>
-      <c r="N373">
-        <v>70</v>
-      </c>
-      <c r="O373">
-        <v>1012</v>
-      </c>
-      <c r="P373">
-        <v>1009</v>
-      </c>
-      <c r="Q373">
-        <v>1007</v>
-      </c>
-      <c r="R373">
-        <v>10</v>
-      </c>
-      <c r="S373">
-        <v>7</v>
-      </c>
-      <c r="T373">
-        <v>1</v>
-      </c>
-      <c r="U373">
-        <v>35</v>
-      </c>
-      <c r="V373">
-        <v>13</v>
-      </c>
-      <c r="X373">
-        <v>7.11</v>
-      </c>
-      <c r="Y373">
-        <v>8</v>
-      </c>
-      <c r="Z373" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA373">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="374" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F374">
-        <v>12</v>
-      </c>
-      <c r="G374">
-        <v>8</v>
-      </c>
-      <c r="H374">
-        <v>3</v>
-      </c>
-      <c r="I374">
-        <v>5</v>
-      </c>
-      <c r="J374">
-        <v>3</v>
-      </c>
-      <c r="K374">
-        <v>1</v>
-      </c>
-      <c r="L374">
-        <v>85</v>
-      </c>
-      <c r="M374">
-        <v>69</v>
-      </c>
-      <c r="N374">
-        <v>44</v>
-      </c>
-      <c r="O374">
-        <v>1012</v>
-      </c>
-      <c r="P374">
-        <v>1009</v>
-      </c>
-      <c r="Q374">
-        <v>1007</v>
-      </c>
-      <c r="R374">
-        <v>10</v>
-      </c>
-      <c r="S374">
-        <v>8</v>
-      </c>
-      <c r="T374">
-        <v>6</v>
-      </c>
-      <c r="U374">
-        <v>26</v>
-      </c>
-      <c r="V374">
-        <v>10</v>
-      </c>
-      <c r="X374">
-        <v>9.91</v>
-      </c>
-      <c r="Y374">
-        <v>6</v>
-      </c>
-      <c r="Z374" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA374">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="375" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F375">
-        <v>11</v>
-      </c>
-      <c r="G375">
-        <v>6</v>
-      </c>
-      <c r="H375">
-        <v>1</v>
-      </c>
-      <c r="I375">
-        <v>1</v>
-      </c>
-      <c r="J375">
-        <v>-2</v>
-      </c>
-      <c r="K375">
-        <v>-6</v>
-      </c>
-      <c r="L375">
-        <v>88</v>
-      </c>
-      <c r="M375">
-        <v>54</v>
-      </c>
-      <c r="N375">
-        <v>29</v>
-      </c>
-      <c r="O375">
-        <v>1012</v>
-      </c>
-      <c r="P375">
-        <v>1010</v>
-      </c>
-      <c r="Q375">
-        <v>1007</v>
-      </c>
-      <c r="R375">
-        <v>10</v>
-      </c>
-      <c r="S375">
-        <v>9</v>
-      </c>
-      <c r="T375">
-        <v>2</v>
-      </c>
-      <c r="U375">
-        <v>39</v>
-      </c>
-      <c r="V375">
-        <v>16</v>
-      </c>
-      <c r="X375">
-        <v>7.11</v>
-      </c>
-      <c r="Y375">
-        <v>3</v>
-      </c>
-      <c r="Z375" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA375">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="376" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F376">
-        <v>11</v>
-      </c>
-      <c r="G376">
-        <v>6</v>
-      </c>
-      <c r="H376">
-        <v>1</v>
-      </c>
-      <c r="I376">
-        <v>0</v>
-      </c>
-      <c r="J376">
-        <v>-3</v>
-      </c>
-      <c r="K376">
-        <v>-7</v>
-      </c>
-      <c r="L376">
-        <v>87</v>
-      </c>
-      <c r="M376">
-        <v>50</v>
-      </c>
-      <c r="N376">
-        <v>27</v>
-      </c>
-      <c r="O376">
-        <v>1017</v>
-      </c>
-      <c r="P376">
-        <v>1014</v>
-      </c>
-      <c r="Q376">
-        <v>1010</v>
-      </c>
-      <c r="R376">
-        <v>10</v>
-      </c>
-      <c r="S376">
-        <v>9</v>
-      </c>
-      <c r="T376">
-        <v>6</v>
-      </c>
-      <c r="U376">
-        <v>26</v>
-      </c>
-      <c r="V376">
-        <v>10</v>
-      </c>
-      <c r="X376">
-        <v>0</v>
-      </c>
-      <c r="Y376">
-        <v>3</v>
-      </c>
-      <c r="Z376" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA376">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="377" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F377">
-        <v>11</v>
-      </c>
-      <c r="G377">
-        <v>4</v>
-      </c>
-      <c r="H377">
-        <v>-2</v>
-      </c>
-      <c r="I377">
-        <v>1</v>
-      </c>
-      <c r="J377">
-        <v>-2</v>
-      </c>
-      <c r="K377">
-        <v>-5</v>
-      </c>
-      <c r="L377">
-        <v>86</v>
-      </c>
-      <c r="M377">
-        <v>57</v>
-      </c>
-      <c r="N377">
-        <v>32</v>
-      </c>
-      <c r="O377">
-        <v>1018</v>
-      </c>
-      <c r="P377">
-        <v>1015</v>
-      </c>
-      <c r="Q377">
-        <v>1013</v>
-      </c>
-      <c r="R377">
-        <v>10</v>
-      </c>
-      <c r="S377">
-        <v>10</v>
-      </c>
-      <c r="T377">
-        <v>6</v>
-      </c>
-      <c r="U377">
-        <v>35</v>
-      </c>
-      <c r="V377">
-        <v>6</v>
-      </c>
-      <c r="X377">
-        <v>1.02</v>
-      </c>
-      <c r="Y377">
-        <v>5</v>
-      </c>
-      <c r="Z377" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA377">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="378" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F378">
-        <v>5</v>
-      </c>
-      <c r="G378">
-        <v>3</v>
-      </c>
-      <c r="H378">
-        <v>1</v>
-      </c>
-      <c r="I378">
-        <v>0</v>
-      </c>
-      <c r="J378">
-        <v>-4</v>
-      </c>
-      <c r="K378">
-        <v>-6</v>
-      </c>
-      <c r="L378">
-        <v>93</v>
-      </c>
-      <c r="M378">
-        <v>58</v>
-      </c>
-      <c r="N378">
-        <v>41</v>
-      </c>
-      <c r="O378">
-        <v>1024</v>
-      </c>
-      <c r="P378">
-        <v>1019</v>
-      </c>
-      <c r="Q378">
-        <v>1015</v>
-      </c>
-      <c r="R378">
-        <v>10</v>
-      </c>
-      <c r="S378">
-        <v>9</v>
-      </c>
-      <c r="T378">
-        <v>8</v>
-      </c>
-      <c r="U378">
-        <v>26</v>
-      </c>
-      <c r="V378">
-        <v>13</v>
-      </c>
-      <c r="X378">
-        <v>0</v>
-      </c>
-      <c r="Y378">
-        <v>7</v>
-      </c>
-      <c r="Z378" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA378">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="379" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F379">
-        <v>13</v>
-      </c>
-      <c r="G379">
-        <v>4</v>
-      </c>
-      <c r="H379">
-        <v>-5</v>
-      </c>
-      <c r="I379">
-        <v>0</v>
-      </c>
-      <c r="J379">
-        <v>-5</v>
-      </c>
-      <c r="K379">
-        <v>-10</v>
-      </c>
-      <c r="L379">
-        <v>86</v>
-      </c>
-      <c r="M379">
-        <v>47</v>
-      </c>
-      <c r="N379">
-        <v>21</v>
-      </c>
-      <c r="O379">
-        <v>1025</v>
-      </c>
-      <c r="P379">
-        <v>1020</v>
-      </c>
-      <c r="Q379">
-        <v>1016</v>
-      </c>
-      <c r="R379">
-        <v>14</v>
-      </c>
-      <c r="S379">
-        <v>11</v>
-      </c>
-      <c r="T379">
-        <v>10</v>
-      </c>
-      <c r="U379">
-        <v>23</v>
-      </c>
-      <c r="V379">
-        <v>8</v>
-      </c>
-      <c r="X379">
-        <v>0</v>
-      </c>
-      <c r="Y379">
-        <v>1</v>
-      </c>
-      <c r="AA379">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="380" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F380">
-        <v>17</v>
-      </c>
-      <c r="G380">
-        <v>8</v>
-      </c>
-      <c r="H380">
-        <v>-2</v>
-      </c>
-      <c r="I380">
-        <v>-1</v>
-      </c>
-      <c r="J380">
-        <v>-5</v>
-      </c>
-      <c r="K380">
-        <v>-8</v>
-      </c>
-      <c r="L380">
-        <v>64</v>
-      </c>
-      <c r="M380">
-        <v>34</v>
-      </c>
-      <c r="N380">
-        <v>17</v>
-      </c>
-      <c r="O380">
-        <v>1017</v>
-      </c>
-      <c r="P380">
-        <v>1015</v>
-      </c>
-      <c r="Q380">
-        <v>1011</v>
-      </c>
-      <c r="R380">
-        <v>10</v>
-      </c>
-      <c r="S380">
-        <v>10</v>
-      </c>
-      <c r="T380">
-        <v>10</v>
-      </c>
-      <c r="U380">
-        <v>35</v>
-      </c>
-      <c r="V380">
-        <v>13</v>
-      </c>
-      <c r="X380">
-        <v>0</v>
-      </c>
-      <c r="Y380">
-        <v>5</v>
-      </c>
-      <c r="AA380">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="381" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F381">
-        <v>14</v>
-      </c>
-      <c r="G381">
-        <v>9</v>
-      </c>
-      <c r="H381">
-        <v>5</v>
-      </c>
-      <c r="I381">
-        <v>2</v>
-      </c>
-      <c r="J381">
-        <v>1</v>
-      </c>
-      <c r="K381">
-        <v>-1</v>
-      </c>
-      <c r="L381">
-        <v>81</v>
-      </c>
-      <c r="M381">
-        <v>52</v>
-      </c>
-      <c r="N381">
-        <v>33</v>
-      </c>
-      <c r="O381">
-        <v>1015</v>
-      </c>
-      <c r="P381">
-        <v>1013</v>
-      </c>
-      <c r="Q381">
-        <v>1010</v>
-      </c>
-      <c r="R381">
-        <v>10</v>
-      </c>
-      <c r="S381">
-        <v>10</v>
-      </c>
-      <c r="T381">
-        <v>10</v>
-      </c>
-      <c r="U381">
-        <v>21</v>
-      </c>
-      <c r="V381">
-        <v>10</v>
-      </c>
-      <c r="X381">
-        <v>0</v>
-      </c>
-      <c r="Y381">
-        <v>5</v>
-      </c>
-      <c r="AA381">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="382" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F382">
-        <v>19</v>
-      </c>
-      <c r="G382">
-        <v>10</v>
-      </c>
-      <c r="H382">
-        <v>1</v>
-      </c>
-      <c r="I382">
-        <v>2</v>
-      </c>
-      <c r="J382">
-        <v>-2</v>
-      </c>
-      <c r="K382">
-        <v>-4</v>
-      </c>
-      <c r="L382">
-        <v>75</v>
-      </c>
-      <c r="M382">
-        <v>40</v>
-      </c>
-      <c r="N382">
-        <v>21</v>
-      </c>
-      <c r="O382">
-        <v>1014</v>
-      </c>
-      <c r="P382">
-        <v>1013</v>
-      </c>
-      <c r="Q382">
-        <v>1009</v>
-      </c>
-      <c r="R382">
-        <v>10</v>
-      </c>
-      <c r="S382">
-        <v>10</v>
-      </c>
-      <c r="T382">
-        <v>10</v>
-      </c>
-      <c r="U382">
-        <v>23</v>
-      </c>
-      <c r="V382">
-        <v>6</v>
-      </c>
-      <c r="X382">
-        <v>0</v>
-      </c>
-      <c r="Y382">
-        <v>1</v>
-      </c>
-      <c r="AA382">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="383" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F383">
-        <v>21</v>
-      </c>
-      <c r="G383">
-        <v>12</v>
-      </c>
-      <c r="H383">
-        <v>3</v>
-      </c>
-      <c r="I383">
-        <v>1</v>
-      </c>
-      <c r="J383">
-        <v>-2</v>
-      </c>
-      <c r="K383">
-        <v>-5</v>
-      </c>
-      <c r="L383">
-        <v>65</v>
-      </c>
-      <c r="M383">
-        <v>34</v>
-      </c>
-      <c r="N383">
-        <v>17</v>
-      </c>
-      <c r="O383">
-        <v>1016</v>
-      </c>
-      <c r="P383">
-        <v>1014</v>
-      </c>
-      <c r="Q383">
-        <v>1010</v>
-      </c>
-      <c r="R383">
-        <v>14</v>
-      </c>
-      <c r="S383">
-        <v>10</v>
-      </c>
-      <c r="T383">
-        <v>10</v>
-      </c>
-      <c r="U383">
-        <v>19</v>
-      </c>
-      <c r="V383">
-        <v>8</v>
-      </c>
-      <c r="X383">
-        <v>0</v>
-      </c>
-      <c r="Y383">
-        <v>1</v>
-      </c>
-      <c r="AA383">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="384" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F384">
-        <v>21</v>
-      </c>
-      <c r="G384">
-        <v>11</v>
-      </c>
-      <c r="H384">
-        <v>2</v>
-      </c>
-      <c r="I384">
-        <v>2</v>
-      </c>
-      <c r="J384">
-        <v>-2</v>
-      </c>
-      <c r="K384">
-        <v>-6</v>
-      </c>
-      <c r="L384">
-        <v>70</v>
-      </c>
-      <c r="M384">
-        <v>34</v>
-      </c>
-      <c r="N384">
-        <v>16</v>
-      </c>
-      <c r="O384">
-        <v>1017</v>
-      </c>
-      <c r="P384">
-        <v>1015</v>
-      </c>
-      <c r="Q384">
-        <v>1011</v>
-      </c>
-      <c r="R384">
-        <v>10</v>
-      </c>
-      <c r="S384">
-        <v>10</v>
-      </c>
-      <c r="T384">
-        <v>8</v>
-      </c>
-      <c r="U384">
-        <v>35</v>
-      </c>
-      <c r="V384">
-        <v>10</v>
-      </c>
-      <c r="X384">
-        <v>0</v>
-      </c>
-      <c r="Y384">
-        <v>2</v>
-      </c>
-      <c r="Z384" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA384">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="385" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F385">
-        <v>18</v>
-      </c>
-      <c r="G385">
-        <v>11</v>
-      </c>
-      <c r="H385">
-        <v>4</v>
-      </c>
-      <c r="I385">
-        <v>11</v>
-      </c>
-      <c r="J385">
-        <v>3</v>
-      </c>
-      <c r="K385">
-        <v>0</v>
-      </c>
-      <c r="L385">
-        <v>96</v>
-      </c>
-      <c r="M385">
-        <v>59</v>
-      </c>
-      <c r="N385">
-        <v>28</v>
-      </c>
-      <c r="O385">
-        <v>1020</v>
-      </c>
-      <c r="P385">
-        <v>1017</v>
-      </c>
-      <c r="Q385">
-        <v>1014</v>
-      </c>
-      <c r="R385">
-        <v>10</v>
-      </c>
-      <c r="S385">
-        <v>9</v>
-      </c>
-      <c r="T385">
-        <v>7</v>
-      </c>
-      <c r="U385">
-        <v>32</v>
-      </c>
-      <c r="V385">
-        <v>6</v>
-      </c>
-      <c r="X385">
-        <v>0.51</v>
-      </c>
-      <c r="Y385">
-        <v>4</v>
-      </c>
-      <c r="Z385" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA385">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="386" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F386">
-        <v>20</v>
-      </c>
-      <c r="G386">
-        <v>11</v>
-      </c>
-      <c r="H386">
-        <v>2</v>
-      </c>
-      <c r="I386">
-        <v>4</v>
-      </c>
-      <c r="J386">
-        <v>1</v>
-      </c>
-      <c r="K386">
-        <v>-2</v>
-      </c>
-      <c r="L386">
-        <v>87</v>
-      </c>
-      <c r="M386">
-        <v>48</v>
-      </c>
-      <c r="N386">
-        <v>20</v>
-      </c>
-      <c r="O386">
-        <v>1019</v>
-      </c>
-      <c r="P386">
-        <v>1017</v>
-      </c>
-      <c r="Q386">
-        <v>1013</v>
-      </c>
-      <c r="R386">
-        <v>10</v>
-      </c>
-      <c r="S386">
-        <v>10</v>
-      </c>
-      <c r="T386">
-        <v>10</v>
-      </c>
-      <c r="U386">
-        <v>19</v>
-      </c>
-      <c r="V386">
-        <v>5</v>
-      </c>
-      <c r="X386">
-        <v>0</v>
-      </c>
-      <c r="Y386">
-        <v>4</v>
-      </c>
-      <c r="AA386">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="387" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F387">
-        <v>19</v>
-      </c>
-      <c r="G387">
-        <v>12</v>
-      </c>
-      <c r="H387">
-        <v>5</v>
-      </c>
-      <c r="I387">
-        <v>8</v>
-      </c>
-      <c r="J387">
-        <v>3</v>
-      </c>
-      <c r="K387">
-        <v>1</v>
-      </c>
-      <c r="L387">
-        <v>83</v>
-      </c>
-      <c r="M387">
-        <v>53</v>
-      </c>
-      <c r="N387">
-        <v>29</v>
-      </c>
-      <c r="O387">
-        <v>1018</v>
-      </c>
-      <c r="P387">
-        <v>1016</v>
-      </c>
-      <c r="Q387">
-        <v>1013</v>
-      </c>
-      <c r="R387">
-        <v>11</v>
-      </c>
-      <c r="S387">
-        <v>9</v>
-      </c>
-      <c r="T387">
-        <v>7</v>
-      </c>
-      <c r="U387">
-        <v>35</v>
-      </c>
-      <c r="V387">
-        <v>13</v>
-      </c>
-      <c r="X387">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="Y387">
-        <v>6</v>
-      </c>
-      <c r="Z387" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA387">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="388" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F388">
-        <v>17</v>
-      </c>
-      <c r="G388">
-        <v>12</v>
-      </c>
-      <c r="H388">
-        <v>7</v>
-      </c>
-      <c r="I388">
-        <v>9</v>
-      </c>
-      <c r="J388">
-        <v>8</v>
-      </c>
-      <c r="K388">
-        <v>5</v>
-      </c>
-      <c r="L388">
-        <v>88</v>
-      </c>
-      <c r="M388">
-        <v>74</v>
-      </c>
-      <c r="N388">
-        <v>43</v>
-      </c>
-      <c r="O388">
-        <v>1017</v>
-      </c>
-      <c r="P388">
-        <v>1015</v>
-      </c>
-      <c r="Q388">
-        <v>1009</v>
-      </c>
-      <c r="R388">
-        <v>10</v>
-      </c>
-      <c r="S388">
-        <v>9</v>
-      </c>
-      <c r="T388">
-        <v>6</v>
-      </c>
-      <c r="U388">
-        <v>26</v>
-      </c>
-      <c r="V388">
-        <v>10</v>
-      </c>
-      <c r="X388">
-        <v>1.02</v>
-      </c>
-      <c r="Y388">
-        <v>7</v>
-      </c>
-      <c r="Z388" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA388">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -30178,7 +28724,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30190,7 +28736,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
